--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_113_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_113_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.1423447748141653, 2.709342952099985]</t>
+          <t>[2.141558528738204, 2.710129198175946]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.0862448486910985, 0.2554381045276459]</t>
+          <t>[-0.08624651702140529, 0.2554397728579527]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.3239343785535649</v>
+        <v>0.3239390523390353</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3239343785535649</v>
+        <v>0.3239390523390353</v>
       </c>
       <c r="W2" t="n">
         <v>22.16524524524569</v>
